--- a/statistical_logical_practice.xlsx
+++ b/statistical_logical_practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CFE84-4639-5B4D-96A6-A1D2EE8B1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A160DB81-6E73-DA4A-8E12-0A064AF7BDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -560,22 +560,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF356854"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF356854"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF356854"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF356854"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF6F8F9"/>
@@ -599,13 +583,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="data-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" size="0" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3925,8 +3925,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="244" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
